--- a/uploads/Expenses report January.xlsx
+++ b/uploads/Expenses report January.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCE9ED9-0D7B-3341-8DFB-101BDEFB8814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C61094B-640B-A540-A083-E7A061EF0374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>OTHER</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>mafia expulsion for client-04198</t>
+  </si>
+  <si>
+    <t>Naruto Uzumaki</t>
   </si>
 </sst>
 </file>
@@ -460,44 +463,44 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -521,6 +524,230 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>990196</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>527558</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Freeform 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6D4FC7-63E6-CD49-9643-8F313054F939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12166196" y="8483285"/>
+          <a:ext cx="2737762" cy="660715"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 927504 w 2737762"/>
+            <a:gd name="connsiteY0" fmla="*/ 470215 h 660715"/>
+            <a:gd name="connsiteX1" fmla="*/ 978304 w 2737762"/>
+            <a:gd name="connsiteY1" fmla="*/ 315 h 660715"/>
+            <a:gd name="connsiteX2" fmla="*/ 1118004 w 2737762"/>
+            <a:gd name="connsiteY2" fmla="*/ 508315 h 660715"/>
+            <a:gd name="connsiteX3" fmla="*/ 1219604 w 2737762"/>
+            <a:gd name="connsiteY3" fmla="*/ 315 h 660715"/>
+            <a:gd name="connsiteX4" fmla="*/ 1232304 w 2737762"/>
+            <a:gd name="connsiteY4" fmla="*/ 432115 h 660715"/>
+            <a:gd name="connsiteX5" fmla="*/ 2578504 w 2737762"/>
+            <a:gd name="connsiteY5" fmla="*/ 419415 h 660715"/>
+            <a:gd name="connsiteX6" fmla="*/ 1727604 w 2737762"/>
+            <a:gd name="connsiteY6" fmla="*/ 241615 h 660715"/>
+            <a:gd name="connsiteX7" fmla="*/ 216304 w 2737762"/>
+            <a:gd name="connsiteY7" fmla="*/ 495615 h 660715"/>
+            <a:gd name="connsiteX8" fmla="*/ 2108604 w 2737762"/>
+            <a:gd name="connsiteY8" fmla="*/ 228915 h 660715"/>
+            <a:gd name="connsiteX9" fmla="*/ 404 w 2737762"/>
+            <a:gd name="connsiteY9" fmla="*/ 203515 h 660715"/>
+            <a:gd name="connsiteX10" fmla="*/ 2311804 w 2737762"/>
+            <a:gd name="connsiteY10" fmla="*/ 470215 h 660715"/>
+            <a:gd name="connsiteX11" fmla="*/ 2553104 w 2737762"/>
+            <a:gd name="connsiteY11" fmla="*/ 76515 h 660715"/>
+            <a:gd name="connsiteX12" fmla="*/ 279804 w 2737762"/>
+            <a:gd name="connsiteY12" fmla="*/ 584515 h 660715"/>
+            <a:gd name="connsiteX13" fmla="*/ 216304 w 2737762"/>
+            <a:gd name="connsiteY13" fmla="*/ 648015 h 660715"/>
+            <a:gd name="connsiteX14" fmla="*/ 317904 w 2737762"/>
+            <a:gd name="connsiteY14" fmla="*/ 660715 h 660715"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2737762" h="660715">
+              <a:moveTo>
+                <a:pt x="927504" y="470215"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="937029" y="232090"/>
+                <a:pt x="946554" y="-6035"/>
+                <a:pt x="978304" y="315"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1010054" y="6665"/>
+                <a:pt x="1077787" y="508315"/>
+                <a:pt x="1118004" y="508315"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1158221" y="508315"/>
+                <a:pt x="1200554" y="13015"/>
+                <a:pt x="1219604" y="315"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1238654" y="-12385"/>
+                <a:pt x="1005821" y="362265"/>
+                <a:pt x="1232304" y="432115"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1458787" y="501965"/>
+                <a:pt x="2495954" y="451165"/>
+                <a:pt x="2578504" y="419415"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2661054" y="387665"/>
+                <a:pt x="2121304" y="228915"/>
+                <a:pt x="1727604" y="241615"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1333904" y="254315"/>
+                <a:pt x="152804" y="497732"/>
+                <a:pt x="216304" y="495615"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="279804" y="493498"/>
+                <a:pt x="2144587" y="277598"/>
+                <a:pt x="2108604" y="228915"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2072621" y="180232"/>
+                <a:pt x="-33463" y="163298"/>
+                <a:pt x="404" y="203515"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="34271" y="243732"/>
+                <a:pt x="1886354" y="491382"/>
+                <a:pt x="2311804" y="470215"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2737254" y="449048"/>
+                <a:pt x="2891771" y="57465"/>
+                <a:pt x="2553104" y="76515"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2214437" y="95565"/>
+                <a:pt x="669271" y="489265"/>
+                <a:pt x="279804" y="584515"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-109663" y="679765"/>
+                <a:pt x="209954" y="635315"/>
+                <a:pt x="216304" y="648015"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="222654" y="660715"/>
+                <a:pt x="270279" y="660715"/>
+                <a:pt x="317904" y="660715"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,8 +1019,8 @@
   <dimension ref="B1:N34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14:D14"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,7 +1041,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="24" t="s">
         <v>31</v>
       </c>
       <c r="G1" s="5"/>
@@ -839,42 +1066,42 @@
       <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="18"/>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="29"/>
+      <c r="L3" s="36"/>
     </row>
     <row r="4" spans="2:14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="1"/>
       <c r="K4" s="15" t="s">
         <v>12</v>
@@ -917,10 +1144,10 @@
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="14" t="s">
         <v>17</v>
       </c>
@@ -950,10 +1177,10 @@
       <c r="B8" s="21">
         <v>44928</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="10">
         <v>2000</v>
       </c>
@@ -980,10 +1207,10 @@
       <c r="B9" s="21">
         <v>44936</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="10">
         <v>800</v>
       </c>
@@ -1010,10 +1237,10 @@
       <c r="B10" s="21">
         <v>44936</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="10">
         <v>1200</v>
       </c>
@@ -1036,10 +1263,10 @@
       <c r="B11" s="21">
         <v>44940</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10">
@@ -1060,8 +1287,8 @@
     </row>
     <row r="12" spans="2:14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="21"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1076,8 +1303,8 @@
     </row>
     <row r="13" spans="2:14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="21"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1092,8 +1319,8 @@
     </row>
     <row r="14" spans="2:14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1108,8 +1335,8 @@
     </row>
     <row r="15" spans="2:14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="21"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1124,8 +1351,8 @@
     </row>
     <row r="16" spans="2:14" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="21"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1140,8 +1367,8 @@
     </row>
     <row r="17" spans="2:12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="21"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1156,8 +1383,8 @@
     </row>
     <row r="18" spans="2:12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="21"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1213,10 +1440,10 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="26"/>
+      <c r="K20" s="25"/>
       <c r="L20" s="12">
         <f>SUM(L8:L18)</f>
         <v>9150</v>
@@ -1227,16 +1454,16 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="26" t="s">
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="26"/>
+      <c r="K21" s="25"/>
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="2:12" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1250,10 +1477,10 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="26"/>
+      <c r="K22" s="25"/>
       <c r="L22" s="12">
         <f>L20-L21</f>
         <v>9150</v>
@@ -1263,10 +1490,10 @@
       <c r="B23" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="16" t="s">
         <v>16</v>
       </c>
@@ -1280,8 +1507,8 @@
     </row>
     <row r="24" spans="2:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="21"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="10"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -1293,8 +1520,8 @@
     </row>
     <row r="25" spans="2:12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="21"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="10"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -1306,21 +1533,23 @@
     </row>
     <row r="26" spans="2:12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="21"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="10"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
+      <c r="I26" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
       <c r="L26" s="20"/>
     </row>
     <row r="27" spans="2:12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="21"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="10"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -1336,8 +1565,8 @@
     </row>
     <row r="28" spans="2:12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="21"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="10"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -1349,70 +1578,70 @@
     </row>
     <row r="29" spans="2:12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="21"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="10"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
     </row>
     <row r="30" spans="2:12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="21"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="10"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
     </row>
     <row r="31" spans="2:12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="21"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="10"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
     </row>
     <row r="32" spans="2:12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="21"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="10"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
     </row>
     <row r="33" spans="2:12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="21"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="10"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
     </row>
     <row r="34" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
@@ -1429,21 +1658,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L33"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
@@ -1460,10 +1674,25 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="F4:I4"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L33"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -1471,6 +1700,7 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="1048575" man="1"/>
   </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
